--- a/src/main/webapp/schedules/HepB.xlsx
+++ b/src/main/webapp/schedules/HepB.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TCHWorkspaceJava6\fv\schedules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\tch\forecaster\src\main\webapp\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3364B6F-B3AD-42D3-9FE2-03FF049CD318}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="255" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedules" sheetId="1" r:id="rId1"/>
     <sheet name="XML" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Excel_BuiltIn_Print_Area_1_1">Schedules!$A$1:$L$80</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Schedules!$A$1:$K$80</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1">Schedules!$A$1:$L$93</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Schedules!$A$1:$K$93</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="63">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -41,12 +50,6 @@
     <t>Vaccine</t>
   </si>
   <si>
-    <t>Trade Name(s)</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Series</t>
   </si>
   <si>
@@ -62,24 +65,6 @@
     <t>Hep B, dialysis</t>
   </si>
   <si>
-    <t>HepB-4</t>
-  </si>
-  <si>
-    <t>HepB-Adult</t>
-  </si>
-  <si>
-    <t>Hib-HepB</t>
-  </si>
-  <si>
-    <t>COMVAX</t>
-  </si>
-  <si>
-    <t>DTaP-IPV-Hib-HepB</t>
-  </si>
-  <si>
-    <t>Pentavalente</t>
-  </si>
-  <si>
     <t>Schedule</t>
   </si>
   <si>
@@ -209,19 +194,40 @@
     <t>7 weeks</t>
   </si>
   <si>
-    <t>Twinrix</t>
-  </si>
-  <si>
-    <t>Pentacel</t>
-  </si>
-  <si>
-    <t>137, 114, 1150, 146, 1240, 1250, 1270, 2100, 136, 142, 2090, 1260</t>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Hep B, adolescent or pediatric</t>
+  </si>
+  <si>
+    <t>yellow fever</t>
+  </si>
+  <si>
+    <t>Hep B, adolescent/high risk infant</t>
+  </si>
+  <si>
+    <t>Hep B, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Hib-Hep B</t>
+  </si>
+  <si>
+    <t>DTaP-Hep B-IPV</t>
+  </si>
+  <si>
+    <t>DTaP,IPV,Hib,HepB</t>
+  </si>
+  <si>
+    <t>102,104,43,44,37,37,51,146,45,110,08,42</t>
+  </si>
+  <si>
+    <t>CVX Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -262,7 +268,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +309,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
   </fills>
@@ -383,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -415,9 +427,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,6 +456,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,19 +556,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>4067</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114366</xdr:rowOff>
+      <xdr:colOff>518417</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142941</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -569,8 +593,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="106680" y="1950720"/>
-          <a:ext cx="7624067" cy="1943166"/>
+          <a:off x="619125" y="3225165"/>
+          <a:ext cx="7404992" cy="1880301"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -929,11 +953,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:K93"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -964,13 +988,13 @@
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
@@ -983,754 +1007,842 @@
       <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="8"/>
       <c r="K3" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="G4" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="24" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="G5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="G4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="9">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="G5" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="10" t="s">
-        <v>61</v>
-      </c>
+      <c r="I5" s="27"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="9">
-        <v>146</v>
+      <c r="K5" s="25">
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C6" s="10">
         <v>-137</v>
       </c>
       <c r="D6" s="11"/>
       <c r="G6" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6" s="12"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="9">
-        <v>1260</v>
+      <c r="K6" s="25">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G7" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H7" s="12"/>
-      <c r="I7" s="10"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="9">
-        <v>1270</v>
+      <c r="K7" s="25">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G8" s="10" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="10"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="9">
-        <v>2100</v>
+      <c r="K8" s="25">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G9" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="H9" s="12"/>
-      <c r="I9" s="10"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="9">
-        <v>2090</v>
+      <c r="K9" s="25">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G10" s="10" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H10" s="12"/>
-      <c r="I10" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="I10" s="27"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="9">
-        <v>136</v>
+      <c r="K10" s="25">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H18" s="13"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="13"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="13"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="16">
+        <v>1</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10" t="s">
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="17"/>
+      <c r="C42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="9">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
+      <c r="D53" s="9"/>
+      <c r="E53" s="20"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="17"/>
+      <c r="C62" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D62" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E62" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="17">
-        <v>1</v>
-      </c>
-      <c r="D27" s="17" t="s">
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="23" t="s">
+      <c r="D63" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="18"/>
-      <c r="C29" s="6" t="s">
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="C65" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="C66" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="19" t="s">
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="C68" s="19"/>
+      <c r="D68" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="21"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="18"/>
-      <c r="C49" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="21"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C62" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C65" s="17">
-        <v>3</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="18"/>
-      <c r="C67" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="9"/>
+      <c r="C69" s="19"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="E71" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="20"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="16">
+        <v>3</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="17"/>
+      <c r="C80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="19"/>
+      <c r="D86" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="19" t="s">
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="19"/>
+      <c r="D87" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="19" t="s">
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D90" s="9"/>
+      <c r="E90" s="20"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D91" s="9"/>
+      <c r="E91" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C92" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="21"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C80" s="9">
+      <c r="C93" s="9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="9">
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B88:D88"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:D5"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B51:D51"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1740,19 +1852,19 @@
     <oddFooter>&amp;CPrepared by  Nathan Bunker &amp;D&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="24" max="16383" man="1"/>
-    <brk id="44" max="11" man="1"/>
+    <brk id="37" max="16383" man="1"/>
+    <brk id="57" max="11" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1761,247 +1873,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="str">
+      <c r="A1" s="21" t="str">
         <f>"&lt;forecast seriesName="&amp;CHAR(34)&amp;Schedules!D2&amp;CHAR(34)&amp;"&gt;"</f>
         <v>&lt;forecast seriesName="HepB"&gt;</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="str">
+      <c r="A2" s="21" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B4&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C4&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="Series" vaccineIds="137, 114, 1150, 146, 1240, 1250, 1270, 2100, 136, 142, 2090, 1260"/&gt;</v>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="Series" vaccineIds="102,104,43,44,37,37,51,146,45,110,08,42"/&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="str">
+      <c r="A3" s="21" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B6&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C6&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">  &lt;vaccine vaccineName="Assume Comp" vaccineIds="-137"/&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B27&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C27&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D27&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E26&amp;CHAR(34)&amp;"&gt;"</f>
+      <c r="A4" s="21" t="str">
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B40&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C40&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D40&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E39&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="P1" dose="1" indication="BIRTH" label="birth"&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C43&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C42&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A5" s="21" t="str">
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C56&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C55&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="1"/&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C30&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D30&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E30&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A6" s="21" t="str">
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C43&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D43&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E43&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="0 days" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C31&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D31&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E31&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A7" s="21" t="str">
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C44&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D44&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E44&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C32&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D32&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E32&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A8" s="21" t="str">
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C45&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D45&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E45&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="0 days" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C33&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D33&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E33&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A9" s="21" t="str">
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C46&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D46&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E46&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="4 weeks" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C34&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D34&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E34&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A10" s="21" t="str">
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C47&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D47&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E47&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="200 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D35&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E35&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A11" s="21" t="str">
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D48&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E48&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D36&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A12" s="21" t="str">
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D49&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="str">
-        <f>"    &lt;assumeComplete age="&amp;CHAR(34)&amp;Schedules!C37&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E37&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A13" s="21" t="str">
+        <f>"    &lt;assumeComplete age="&amp;CHAR(34)&amp;Schedules!C50&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E50&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;assumeComplete age="18 years" reason="Adult assumed to have completed Hep B series. "/&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B40&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C40&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D40&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E40&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A14" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B53&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C53&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D53&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E53&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="Series" schedule="P2" age="" reason=""/&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B41&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C41&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D41&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E41&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A15" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B54&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C54&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D54&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E54&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="Assume Comp" schedule="COMPLETE" age="" reason="Assuming adult received full Hep B series."/&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="str">
+      <c r="A16" s="21" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B47&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C47&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D47&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E46&amp;CHAR(34)&amp;"&gt;"</f>
+      <c r="A17" s="21" t="str">
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B60&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C60&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D60&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E59&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="P2" dose="2" indication="" label="1-2 months"&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C62&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C61&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A18" s="21" t="str">
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C75&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C74&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="2"/&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C50&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D50&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E50&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A19" s="21" t="str">
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C63&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D63&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E63&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="4 weeks" interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C51&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D51&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E51&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A20" s="21" t="str">
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C64&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D64&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E64&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C52&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D52&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E52&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A21" s="21" t="str">
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C65&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D65&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E65&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="4 weeks" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C53&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D53&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E53&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A22" s="21" t="str">
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C66&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D66&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E66&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="3 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C54&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D54&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E54&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A23" s="21" t="str">
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C67&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D67&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E67&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="200 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D55&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E55&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A24" s="21" t="str">
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D68&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E68&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D56&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A25" s="21" t="str">
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D69&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B59&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C59&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D59&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E59&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A26" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B72&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C72&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D72&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E72&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="Series" schedule="P3" age="" reason=""/&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B60&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C60&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D60&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E60&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A27" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B73&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C73&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D73&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E73&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="Assume Comp" schedule="COMPLETE" age="" reason="Assuming adult received full Hep B series."/&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="str">
+      <c r="A28" s="21" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="str">
-        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B65&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C65&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D65&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E64&amp;CHAR(34)&amp;"&gt;"</f>
+      <c r="A29" s="21" t="str">
+        <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B78&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C78&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D78&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E77&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="P3" dose="3" indication="" label="6-18 months"&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="str">
-        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C80&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C79&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A30" s="21" t="str">
+        <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C93&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C92&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="3"/&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="str">
-        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C68&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D68&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E68&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A31" s="21" t="str">
+        <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C81&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D81&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E81&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="24 weeks" interval="8 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="str">
-        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C69&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D69&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E69&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A32" s="21" t="str">
+        <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C82&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D82&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E82&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="str">
-        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C70&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D70&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E70&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A33" s="21" t="str">
+        <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C83&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D83&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E83&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="6 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="str">
-        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C71&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D71&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E71&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A34" s="21" t="str">
+        <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C84&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D84&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E84&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="19 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="str">
-        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C72&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D72&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E72&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A35" s="21" t="str">
+        <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C85&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D85&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E85&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="200 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="str">
-        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D73&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E73&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A36" s="21" t="str">
+        <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D86&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E86&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="8 weeks" grace="7 weeks"/&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="str">
-        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D74&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A37" s="21" t="str">
+        <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D87&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval="16 weeks"/&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B77&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C77&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D77&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E77&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A38" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B90&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C90&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D90&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E90&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="Series" schedule="COMPLETE" age="" reason=""/&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="str">
-        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B78&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C78&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D78&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E78&amp;CHAR(34)&amp;"/&gt;"</f>
+      <c r="A39" s="21" t="str">
+        <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B91&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C91&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D91&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E91&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="Assume Comp" schedule="COMPLETE" age="" reason="Assuming adult received full Hep B series."/&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="str">
+      <c r="A40" s="21" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="str">
+      <c r="A41" s="21" t="str">
         <f>"&lt;/forecast&gt;"</f>
         <v>&lt;/forecast&gt;</v>
       </c>
